--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2236.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2236.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.304480424444212</v>
+        <v>1.063760280609131</v>
       </c>
       <c r="B1">
-        <v>2.923293682378898</v>
+        <v>2.37343955039978</v>
       </c>
       <c r="C1">
-        <v>8.405434666176653</v>
+        <v>6.499833106994629</v>
       </c>
       <c r="D1">
-        <v>1.972487518370759</v>
+        <v>2.248624801635742</v>
       </c>
       <c r="E1">
-        <v>1.084885127183997</v>
+        <v>1.293314337730408</v>
       </c>
     </row>
   </sheetData>
